--- a/database/dy/expdata/1003.xlsx
+++ b/database/dy/expdata/1003.xlsx
@@ -41,9 +41,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>proton</t>
-  </si>
-  <si>
     <t>pi-</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>qT_max</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,40 +417,40 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -458,16 +458,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -505,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>0.9</v>
@@ -552,16 +552,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1.4</v>

--- a/database/dy/expdata/1003.xlsx
+++ b/database/dy/expdata/1003.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>col</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>BeamTransversePolarization</t>
+  </si>
+  <si>
+    <t>TargetTransversePolarization</t>
   </si>
 </sst>
 </file>
@@ -398,199 +404,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.9</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.17</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.52</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.35</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.66</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>5.32</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.9</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.4</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.17</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.5</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.33</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>5.33</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.127</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.124</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.4</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.17</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.46</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1.97</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>5.37</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.11799999999999999</v>
       </c>
     </row>

--- a/database/dy/expdata/1003.xlsx
+++ b/database/dy/expdata/1003.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/dy/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/dy/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA578BC5-778E-F04B-9271-774DE628075A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="9660" windowWidth="37880" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="33600" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,12 +54,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>stat_u</t>
-  </si>
-  <si>
-    <t>er_tot</t>
-  </si>
-  <si>
     <t>xbeam</t>
   </si>
   <si>
@@ -90,13 +85,19 @@
   </si>
   <si>
     <t>TargetTransversePolarization</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>er_tot_u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +137,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,27 +407,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -432,40 +436,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
       </c>
       <c r="P1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -518,7 +522,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -532,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>0.9</v>
@@ -571,7 +575,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -585,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>1.4</v>
